--- a/output/3_Regression/h23_test/table_rmse_h23_laptop.xlsx
+++ b/output/3_Regression/h23_test/table_rmse_h23_laptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h23_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2CDE030DD1E8153A9CFE31D2F8F2D3C234DE8290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F073CE-81E7-4B59-B9E0-87550D0A2830}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_2CDE030DD1E8153A9CFE31D2F8F2D3C234DE8290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F4B8AF-A01A-41B3-B08C-5FD18F375BE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>RW</t>
   </si>
@@ -82,12 +82,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,16 +135,167 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -137,6 +306,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,12 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -968,7 +1144,576 @@
         <v>0.57023245271133904</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12.48121678088104</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.6229656846795377</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.5357841224636566</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.3253930307350403</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.5191177409903398</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.9291236975800938</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.474884526991735</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.1145359929981531</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.823596237060785</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.586721729364913</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.3918735757172001</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.230087889347893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.79263853568292664</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.76886257642395617</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.73126101933373111</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.73091682601668895</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.71269945534726298</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.6911774197308328</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.68226785119041444</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.67479252928821731</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.67543188007898503</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.68020651861956416</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.68685449288076195</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.68994457863427394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.92818137675297074</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.43817193708861268</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.52284456300688464</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.56139222437715997</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.53887022948401453</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.52679541949167397</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.52965553706847768</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.54442768195735947</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.56756395676050408</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.58487632775427179</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.59536614913011621</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.60050089701397535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.68060841920595549</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.71237591733866923</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.68837020273443505</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.69923925195782344</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.68793651031258052</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.67118593184723796</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.66622877787237078</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.66197393249389724</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.6645860273508214</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.67040410383158144</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.67805989229136032</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.68194125407824324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.73646610894398423</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.72706072844613101</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.70188216571649942</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.70622742900434832</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.69356244517993249</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.67747211340927649</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.66906594488819204</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.66207494422291957</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.66515146362622313</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.67221125360603828</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.68124211875710072</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.68555816169230799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.3703403876230189</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.2776142749764461</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.116262343660041</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.0764681830282889</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.060928532959811</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.023742583993243</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.00876522374554</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.97719930368624197</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.91603129899426827</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.85107294107723175</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.81660576460821621</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.79608598927769625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.97347047281772403</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.98930801881218788</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.95777599088543841</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.98438242036629242</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.9592693523236091</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.93512328177521575</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.91459223646546606</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.89169153831190029</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.85455388342721006</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.81378115430999654</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.77938369670408025</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.75567948307023802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.241832426071511</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.725063956984948</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.505552993577155</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.3865791622190109</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.31863650632179</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.269148443150018</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.2320761683556569</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.0905027713902991</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.0704007280135579</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.070948000803164</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.075759399538708</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.077053138190762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.270935099196894</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.754961711577294</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.5329704255723791</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.4130902473828439</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.337244414938356</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.28464715203137</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.245921373755972</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.138428892652501</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.071960498213135</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.0441018079923841</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.0339909376849401</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.0263273043142369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.100529672829089</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.59242418007406961</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.75206330446441805</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.72236585443168932</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.63207632014228898</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.58849533363389384</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.54618739642773817</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.51840255749666764</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.51862096521770862</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.5318054493627512</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.55205145193756755</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.57023245271133904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.100529672829089</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.59242418007406961</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.75206330446441805</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.72236585443168932</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.63207632014228898</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.58849533363389384</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.54618739642773817</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.51840255749666764</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.51862096521770862</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.5318054493627512</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.55205145193756755</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.57023245271133904</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B16:B27">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C27">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D27">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E27">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F27">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G27">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H27">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I27">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J27">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K27">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L27">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M27">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>